--- a/xls/guildBuildConfig.xlsx
+++ b/xls/guildBuildConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="代对表=" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>任务大厅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国梦之世界杯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -468,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -482,7 +478,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -513,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -546,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -571,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -590,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -609,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -628,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -637,18 +633,10 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
